--- a/app/Test/Test Bounder Domain.xlsx
+++ b/app/Test/Test Bounder Domain.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="19395" windowHeight="7155"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="19395" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Patient" sheetId="1" r:id="rId1"/>
     <sheet name="User" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Visit" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="68">
   <si>
     <t>valid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,6 +183,110 @@
   </si>
   <si>
     <t>Add/update patient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add/Update Visit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anything</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chief Complaint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight(kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Height(inch)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Height(cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1c(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3--20 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>letters, signs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61-?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number in format 9'2''</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,8'''</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight/Weight goal(lb)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all the allegies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, No, Unknown</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -235,7 +339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -247,6 +351,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -291,6 +401,102 @@
   <autoFilter ref="A50:C52"/>
   <tableColumns count="3">
     <tableColumn id="1" name="ZIP"/>
+    <tableColumn id="2" name="valid"/>
+    <tableColumn id="3" name="invalid"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表2_14" displayName="表2_14" ref="A3:C5" totalsRowShown="0">
+  <autoFilter ref="A3:C5"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Chief Complaint"/>
+    <tableColumn id="2" name="valid"/>
+    <tableColumn id="3" name="invalid"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="表2_1415" displayName="表2_1415" ref="A8:C10" totalsRowShown="0">
+  <autoFilter ref="A8:C10"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Weight/Weight goal(lb)"/>
+    <tableColumn id="2" name="valid"/>
+    <tableColumn id="3" name="invalid"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表2_141516" displayName="表2_141516" ref="A12:C14" totalsRowShown="0">
+  <autoFilter ref="A12:C14"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Weight(kg)"/>
+    <tableColumn id="2" name="valid"/>
+    <tableColumn id="3" name="invalid"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_1415162" displayName="表2_1415162" ref="A35:C36" totalsRowShown="0">
+  <autoFilter ref="A35:C36"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="others"/>
+    <tableColumn id="2" name="valid"/>
+    <tableColumn id="3" name="invalid"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="表2_14151617" displayName="表2_14151617" ref="A17:C19" totalsRowShown="0">
+  <autoFilter ref="A17:C19"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Height(inch)"/>
+    <tableColumn id="2" name="valid"/>
+    <tableColumn id="3" name="invalid"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="表2_1415161718" displayName="表2_1415161718" ref="A21:C23" totalsRowShown="0">
+  <autoFilter ref="A21:C23"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Height(cm)"/>
+    <tableColumn id="2" name="valid"/>
+    <tableColumn id="3" name="invalid"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="表2_141516171819" displayName="表2_141516171819" ref="A26:C28" totalsRowShown="0">
+  <autoFilter ref="A26:C28"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="A1c(%)"/>
+    <tableColumn id="2" name="valid"/>
+    <tableColumn id="3" name="invalid"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="表2_141516220" displayName="表2_141516220" ref="A31:C32" totalsRowShown="0">
+  <autoFilter ref="A31:C32"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="all the allegies"/>
     <tableColumn id="2" name="valid"/>
     <tableColumn id="3" name="invalid"/>
   </tableColumns>
@@ -684,7 +890,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1084,7 +1292,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1096,13 +1304,272 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="8">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/app/Test/Test Bounder Domain.xlsx
+++ b/app/Test/Test Bounder Domain.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="19395" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="19395" windowHeight="7155" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Patient" sheetId="1" r:id="rId1"/>
     <sheet name="User" sheetId="2" r:id="rId2"/>
     <sheet name="Visit" sheetId="3" r:id="rId3"/>
+    <sheet name="Medicine" sheetId="4" r:id="rId4"/>
+    <sheet name="Caculator" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="106">
   <si>
     <t>valid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,6 +289,158 @@
   </si>
   <si>
     <t>Yes, No, Unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add/Edit User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>format</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(characters)@(characters).(characters)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The reason that we didn't define it numeric type is there might be "-" in it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medicine Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>character</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a-z, A-Z, numbers, symbols</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>others(blank)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-255</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,256</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_dose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>numbers(float or integers)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>others(letter or symbols)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0,10^40) and (-10^40, 0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10^40+1,10^40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_dose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number, letter,symbols</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>others</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 or more</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hypo, weigtht, Renal_gu, Gi_sx,Chf, Cvd, Bone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>characters</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intergers 0-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6 or others</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medicine Add/Update</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +448,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +461,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -339,7 +500,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -349,20 +510,97 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="25">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -409,6 +647,79 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="表2_1421" displayName="表2_1421" ref="A3:C5" totalsRowShown="0">
+  <autoFilter ref="A3:C5"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Email"/>
+    <tableColumn id="2" name="valid"/>
+    <tableColumn id="3" name="invalid"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="表2_142122" displayName="表2_142122" ref="A8:C10" totalsRowShown="0">
+  <autoFilter ref="A8:C10"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Password"/>
+    <tableColumn id="2" name="valid"/>
+    <tableColumn id="3" name="invalid"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="表2_14212223" displayName="表2_14212223" ref="A12:C14" totalsRowShown="0">
+  <autoFilter ref="A12:C14"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Password confirm"/>
+    <tableColumn id="2" name="valid"/>
+    <tableColumn id="3" name="invalid"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="表2_14212224" displayName="表2_14212224" ref="A17:C19" totalsRowShown="0">
+  <autoFilter ref="A17:C19"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="FirstName"/>
+    <tableColumn id="2" name="valid"/>
+    <tableColumn id="3" name="invalid"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="表2_1421222425" displayName="表2_1421222425" ref="A21:C23" totalsRowShown="0">
+  <autoFilter ref="A21:C23"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="LastName"/>
+    <tableColumn id="2" name="valid"/>
+    <tableColumn id="3" name="invalid"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="表2_142122242526" displayName="表2_142122242526" ref="A26:D28" totalsRowShown="0">
+  <autoFilter ref="A26:D28"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Phone"/>
+    <tableColumn id="2" name="valid"/>
+    <tableColumn id="3" name="invalid"/>
+    <tableColumn id="4" name="列1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表2_14" displayName="表2_14" ref="A3:C5" totalsRowShown="0">
   <autoFilter ref="A3:C5"/>
   <tableColumns count="3">
@@ -420,83 +731,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="表2_1415" displayName="表2_1415" ref="A8:C10" totalsRowShown="0">
   <autoFilter ref="A8:C10"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Weight/Weight goal(lb)"/>
-    <tableColumn id="2" name="valid"/>
-    <tableColumn id="3" name="invalid"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表2_141516" displayName="表2_141516" ref="A12:C14" totalsRowShown="0">
-  <autoFilter ref="A12:C14"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Weight(kg)"/>
-    <tableColumn id="2" name="valid"/>
-    <tableColumn id="3" name="invalid"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_1415162" displayName="表2_1415162" ref="A35:C36" totalsRowShown="0">
-  <autoFilter ref="A35:C36"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="others"/>
-    <tableColumn id="2" name="valid"/>
-    <tableColumn id="3" name="invalid"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="表2_14151617" displayName="表2_14151617" ref="A17:C19" totalsRowShown="0">
-  <autoFilter ref="A17:C19"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Height(inch)"/>
-    <tableColumn id="2" name="valid"/>
-    <tableColumn id="3" name="invalid"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="表2_1415161718" displayName="表2_1415161718" ref="A21:C23" totalsRowShown="0">
-  <autoFilter ref="A21:C23"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Height(cm)"/>
-    <tableColumn id="2" name="valid"/>
-    <tableColumn id="3" name="invalid"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="表2_141516171819" displayName="表2_141516171819" ref="A26:C28" totalsRowShown="0">
-  <autoFilter ref="A26:C28"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="A1c(%)"/>
-    <tableColumn id="2" name="valid"/>
-    <tableColumn id="3" name="invalid"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="表2_141516220" displayName="表2_141516220" ref="A31:C32" totalsRowShown="0">
-  <autoFilter ref="A31:C32"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="all the allegies"/>
     <tableColumn id="2" name="valid"/>
     <tableColumn id="3" name="invalid"/>
   </tableColumns>
@@ -516,6 +755,126 @@
 </table>
 </file>
 
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表2_141516" displayName="表2_141516" ref="A12:C14" totalsRowShown="0">
+  <autoFilter ref="A12:C14"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Weight(kg)"/>
+    <tableColumn id="2" name="valid"/>
+    <tableColumn id="3" name="invalid"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_1415162" displayName="表2_1415162" ref="A35:C36" totalsRowShown="0">
+  <autoFilter ref="A35:C36"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="others"/>
+    <tableColumn id="2" name="valid"/>
+    <tableColumn id="3" name="invalid"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="表2_14151617" displayName="表2_14151617" ref="A17:C19" totalsRowShown="0">
+  <autoFilter ref="A17:C19"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Height(inch)"/>
+    <tableColumn id="2" name="valid"/>
+    <tableColumn id="3" name="invalid"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="表2_1415161718" displayName="表2_1415161718" ref="A21:C23" totalsRowShown="0">
+  <autoFilter ref="A21:C23"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Height(cm)"/>
+    <tableColumn id="2" name="valid"/>
+    <tableColumn id="3" name="invalid"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="表2_141516171819" displayName="表2_141516171819" ref="A26:C28" totalsRowShown="0">
+  <autoFilter ref="A26:C28"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="A1c(%)"/>
+    <tableColumn id="2" name="valid"/>
+    <tableColumn id="3" name="invalid"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="表2_141516220" displayName="表2_141516220" ref="A31:C32" totalsRowShown="0">
+  <autoFilter ref="A31:C32"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="all the allegies"/>
+    <tableColumn id="2" name="valid"/>
+    <tableColumn id="3" name="invalid"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="表27" displayName="表27" ref="A3:C5" totalsRowShown="0" headerRowDxfId="20" dataDxfId="21">
+  <autoFilter ref="A3:C5"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Medicine Name" dataDxfId="24"/>
+    <tableColumn id="2" name="valid" dataDxfId="23"/>
+    <tableColumn id="3" name="invalid" dataDxfId="22"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="表28" displayName="表28" ref="A7:C9" totalsRowShown="0" headerRowDxfId="15" dataDxfId="16">
+  <autoFilter ref="A7:C9"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="min_dose" dataDxfId="19"/>
+    <tableColumn id="2" name="valid" dataDxfId="18"/>
+    <tableColumn id="3" name="invalid" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="表29" displayName="表29" ref="A11:C13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="11">
+  <autoFilter ref="A11:C13"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="max_dose" dataDxfId="14"/>
+    <tableColumn id="2" name="valid" dataDxfId="13"/>
+    <tableColumn id="3" name="invalid" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="表30" displayName="表30" ref="A15:C17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
+  <autoFilter ref="A15:C17"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="unit" dataDxfId="9"/>
+    <tableColumn id="2" name="valid" dataDxfId="8"/>
+    <tableColumn id="3" name="invalid" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表2_45" displayName="表2_45" ref="A12:C14" totalsRowShown="0">
   <autoFilter ref="A12:C14"/>
@@ -523,6 +882,18 @@
     <tableColumn id="1" name="Patient name(middlename)"/>
     <tableColumn id="2" name="valid"/>
     <tableColumn id="3" name="invalid"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="表31" displayName="表31" ref="A19:C21" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A19:C21"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Hypo, weigtht, Renal_gu, Gi_sx,Chf, Cvd, Bone" dataDxfId="4"/>
+    <tableColumn id="2" name="valid" dataDxfId="3"/>
+    <tableColumn id="3" name="invalid" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -908,11 +1279,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -1289,16 +1660,226 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="38.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="6">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1306,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1318,11 +1899,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -1503,7 +2084,7 @@
       <c r="A28" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C28" t="s">
@@ -1572,4 +2153,243 @@
     <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="47.75" customWidth="1"/>
+    <col min="2" max="2" width="32.25" customWidth="1"/>
+    <col min="3" max="3" width="48.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="5">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>